--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd274-Cd80.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd274-Cd80.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.047316333333333</v>
+        <v>5.004338333333333</v>
       </c>
       <c r="H2">
-        <v>24.141949</v>
+        <v>15.013015</v>
       </c>
       <c r="I2">
-        <v>0.1063829007179504</v>
+        <v>0.09842252509832523</v>
       </c>
       <c r="J2">
-        <v>0.1063829007179504</v>
+        <v>0.09842252509832525</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.08106466666666667</v>
+        <v>0.9620323333333333</v>
       </c>
       <c r="N2">
-        <v>0.243194</v>
+        <v>2.886097</v>
       </c>
       <c r="O2">
-        <v>0.0008070985645251863</v>
+        <v>0.007300799806346596</v>
       </c>
       <c r="P2">
-        <v>0.0008070985645251864</v>
+        <v>0.007300799806346596</v>
       </c>
       <c r="Q2">
-        <v>0.6523530161228889</v>
+        <v>4.814335283606111</v>
       </c>
       <c r="R2">
-        <v>5.871177145106</v>
+        <v>43.329017552455</v>
       </c>
       <c r="S2">
-        <v>8.586148645948315E-05</v>
+        <v>0.0007185631521779958</v>
       </c>
       <c r="T2">
-        <v>8.586148645948317E-05</v>
+        <v>0.000718563152177996</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.047316333333333</v>
+        <v>5.004338333333333</v>
       </c>
       <c r="H3">
-        <v>24.141949</v>
+        <v>15.013015</v>
       </c>
       <c r="I3">
-        <v>0.1063829007179504</v>
+        <v>0.09842252509832523</v>
       </c>
       <c r="J3">
-        <v>0.1063829007179504</v>
+        <v>0.09842252509832525</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.359105</v>
       </c>
       <c r="O3">
-        <v>0.01114800868273632</v>
+        <v>0.008497341958187089</v>
       </c>
       <c r="P3">
-        <v>0.01114800868273632</v>
+        <v>0.008497341958187089</v>
       </c>
       <c r="Q3">
-        <v>9.010593510627221</v>
+        <v>5.603365972397222</v>
       </c>
       <c r="R3">
-        <v>81.095341595645</v>
+        <v>50.430293751575</v>
       </c>
       <c r="S3">
-        <v>0.001185957500898386</v>
+        <v>0.0008363298521487209</v>
       </c>
       <c r="T3">
-        <v>0.001185957500898386</v>
+        <v>0.000836329852148721</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.047316333333333</v>
+        <v>5.004338333333333</v>
       </c>
       <c r="H4">
-        <v>24.141949</v>
+        <v>15.013015</v>
       </c>
       <c r="I4">
-        <v>0.1063829007179504</v>
+        <v>0.09842252509832523</v>
       </c>
       <c r="J4">
-        <v>0.1063829007179504</v>
+        <v>0.09842252509832525</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.87603366666667</v>
+        <v>30.69779366666667</v>
       </c>
       <c r="N4">
-        <v>47.628101</v>
+        <v>92.09338099999999</v>
       </c>
       <c r="O4">
-        <v>0.158065461928175</v>
+        <v>0.2329635276189966</v>
       </c>
       <c r="P4">
-        <v>0.158065461928175</v>
+        <v>0.2329635276189966</v>
       </c>
       <c r="Q4">
-        <v>127.7594650343165</v>
+        <v>153.6221455948572</v>
       </c>
       <c r="R4">
-        <v>1149.835185308849</v>
+        <v>1382.599310353715</v>
       </c>
       <c r="S4">
-        <v>0.016815462343242</v>
+        <v>0.02292885864407508</v>
       </c>
       <c r="T4">
-        <v>0.016815462343242</v>
+        <v>0.02292885864407508</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.047316333333333</v>
+        <v>5.004338333333333</v>
       </c>
       <c r="H5">
-        <v>24.141949</v>
+        <v>15.013015</v>
       </c>
       <c r="I5">
-        <v>0.1063829007179504</v>
+        <v>0.09842252509832523</v>
       </c>
       <c r="J5">
-        <v>0.1063829007179504</v>
+        <v>0.09842252509832525</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.120291</v>
+        <v>0.4642756666666667</v>
       </c>
       <c r="N5">
-        <v>3.360873</v>
+        <v>1.392827</v>
       </c>
       <c r="O5">
-        <v>0.01115387622166442</v>
+        <v>0.003523357354889427</v>
       </c>
       <c r="P5">
-        <v>0.01115387622166442</v>
+        <v>0.003523357354889427</v>
       </c>
       <c r="Q5">
-        <v>9.015336062386332</v>
+        <v>2.323392515933889</v>
       </c>
       <c r="R5">
-        <v>81.138024561477</v>
+        <v>20.910532643405</v>
       </c>
       <c r="S5">
-        <v>0.001186581706709633</v>
+        <v>0.0003467777276919735</v>
       </c>
       <c r="T5">
-        <v>0.001186581706709633</v>
+        <v>0.0003467777276919735</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.047316333333333</v>
+        <v>5.004338333333333</v>
       </c>
       <c r="H6">
-        <v>24.141949</v>
+        <v>15.013015</v>
       </c>
       <c r="I6">
-        <v>0.1063829007179504</v>
+        <v>0.09842252509832523</v>
       </c>
       <c r="J6">
-        <v>0.1063829007179504</v>
+        <v>0.09842252509832525</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>64.94471299999999</v>
+        <v>87.34624366666667</v>
       </c>
       <c r="N6">
-        <v>194.834139</v>
+        <v>262.038731</v>
       </c>
       <c r="O6">
-        <v>0.6466045786795751</v>
+        <v>0.6628648713262609</v>
       </c>
       <c r="P6">
-        <v>0.6466045786795752</v>
+        <v>0.6628648713262609</v>
       </c>
       <c r="Q6">
-        <v>522.6306496885455</v>
+        <v>437.1101554537739</v>
       </c>
       <c r="R6">
-        <v>4703.675847196911</v>
+        <v>3933.991399083965</v>
       </c>
       <c r="S6">
-        <v>0.06878767069744136</v>
+        <v>0.06524083443490704</v>
       </c>
       <c r="T6">
-        <v>0.06878767069744138</v>
+        <v>0.06524083443490705</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.047316333333333</v>
+        <v>5.004338333333333</v>
       </c>
       <c r="H7">
-        <v>24.141949</v>
+        <v>15.013015</v>
       </c>
       <c r="I7">
-        <v>0.1063829007179504</v>
+        <v>0.09842252509832523</v>
       </c>
       <c r="J7">
-        <v>0.1063829007179504</v>
+        <v>0.09842252509832525</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.297808</v>
+        <v>11.180767</v>
       </c>
       <c r="N7">
-        <v>51.893424</v>
+        <v>33.54230099999999</v>
       </c>
       <c r="O7">
-        <v>0.172220975923324</v>
+        <v>0.08485010193531929</v>
       </c>
       <c r="P7">
-        <v>0.172220975923324</v>
+        <v>0.08485010193531929</v>
       </c>
       <c r="Q7">
-        <v>139.200932849264</v>
+        <v>55.95234089416832</v>
       </c>
       <c r="R7">
-        <v>1252.808395643376</v>
+        <v>503.5710680475149</v>
       </c>
       <c r="S7">
-        <v>0.0183213669831995</v>
+        <v>0.008351161287324417</v>
       </c>
       <c r="T7">
-        <v>0.0183213669831995</v>
+        <v>0.008351161287324419</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>3.583823</v>
       </c>
       <c r="I8">
-        <v>0.01579232424025529</v>
+        <v>0.02349487489124971</v>
       </c>
       <c r="J8">
-        <v>0.01579232424025529</v>
+        <v>0.02349487489124972</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.08106466666666667</v>
+        <v>0.9620323333333333</v>
       </c>
       <c r="N8">
-        <v>0.243194</v>
+        <v>2.886097</v>
       </c>
       <c r="O8">
-        <v>0.0008070985645251863</v>
+        <v>0.007300799806346596</v>
       </c>
       <c r="P8">
-        <v>0.0008070985645251864</v>
+        <v>0.007300799806346596</v>
       </c>
       <c r="Q8">
-        <v>0.09684047229577779</v>
+        <v>1.149251200981222</v>
       </c>
       <c r="R8">
-        <v>0.8715642506620002</v>
+        <v>10.343260808831</v>
       </c>
       <c r="S8">
-        <v>1.274596222482635E-05</v>
+        <v>0.0001715313780561734</v>
       </c>
       <c r="T8">
-        <v>1.274596222482635E-05</v>
+        <v>0.0001715313780561734</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3.583823</v>
       </c>
       <c r="I9">
-        <v>0.01579232424025529</v>
+        <v>0.02349487489124971</v>
       </c>
       <c r="J9">
-        <v>0.01579232424025529</v>
+        <v>0.02349487489124972</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>3.359105</v>
       </c>
       <c r="O9">
-        <v>0.01114800868273632</v>
+        <v>0.008497341958187089</v>
       </c>
       <c r="P9">
-        <v>0.01114800868273632</v>
+        <v>0.008497341958187089</v>
       </c>
       <c r="Q9">
         <v>1.337604195379444</v>
@@ -1013,10 +1013,10 @@
         <v>12.038437758415</v>
       </c>
       <c r="S9">
-        <v>0.0001760529677509532</v>
+        <v>0.0001996439862157725</v>
       </c>
       <c r="T9">
-        <v>0.0001760529677509532</v>
+        <v>0.0001996439862157725</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3.583823</v>
       </c>
       <c r="I10">
-        <v>0.01579232424025529</v>
+        <v>0.02349487489124971</v>
       </c>
       <c r="J10">
-        <v>0.01579232424025529</v>
+        <v>0.02349487489124972</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.87603366666667</v>
+        <v>30.69779366666667</v>
       </c>
       <c r="N10">
-        <v>47.628101</v>
+        <v>92.09338099999999</v>
       </c>
       <c r="O10">
-        <v>0.158065461928175</v>
+        <v>0.2329635276189966</v>
       </c>
       <c r="P10">
-        <v>0.158065461928175</v>
+        <v>0.2329635276189966</v>
       </c>
       <c r="Q10">
-        <v>18.96563153445811</v>
+        <v>36.67181966395145</v>
       </c>
       <c r="R10">
-        <v>170.690683810123</v>
+        <v>330.046376975563</v>
       </c>
       <c r="S10">
-        <v>0.002496221025955468</v>
+        <v>0.005473448935632522</v>
       </c>
       <c r="T10">
-        <v>0.002496221025955469</v>
+        <v>0.005473448935632523</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>3.583823</v>
       </c>
       <c r="I11">
-        <v>0.01579232424025529</v>
+        <v>0.02349487489124971</v>
       </c>
       <c r="J11">
-        <v>0.01579232424025529</v>
+        <v>0.02349487489124972</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.120291</v>
+        <v>0.4642756666666667</v>
       </c>
       <c r="N11">
-        <v>3.360873</v>
+        <v>1.392827</v>
       </c>
       <c r="O11">
-        <v>0.01115387622166442</v>
+        <v>0.003523357354889427</v>
       </c>
       <c r="P11">
-        <v>0.01115387622166442</v>
+        <v>0.003523357354889427</v>
       </c>
       <c r="Q11">
-        <v>1.338308217497667</v>
+        <v>0.5546272708467779</v>
       </c>
       <c r="R11">
-        <v>12.044773957479</v>
+        <v>4.991645437621</v>
       </c>
       <c r="S11">
-        <v>0.0001761456298281981</v>
+        <v>8.278084025029159E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001761456298281981</v>
+        <v>8.278084025029162E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>3.583823</v>
       </c>
       <c r="I12">
-        <v>0.01579232424025529</v>
+        <v>0.02349487489124971</v>
       </c>
       <c r="J12">
-        <v>0.01579232424025529</v>
+        <v>0.02349487489124972</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>64.94471299999999</v>
+        <v>87.34624366666667</v>
       </c>
       <c r="N12">
-        <v>194.834139</v>
+        <v>262.038731</v>
       </c>
       <c r="O12">
-        <v>0.6466045786795751</v>
+        <v>0.6628648713262609</v>
       </c>
       <c r="P12">
-        <v>0.6466045786795752</v>
+        <v>0.6628648713262609</v>
       </c>
       <c r="Q12">
-        <v>77.58345205926634</v>
+        <v>104.3444923387348</v>
       </c>
       <c r="R12">
-        <v>698.251068533397</v>
+        <v>939.100431048613</v>
       </c>
       <c r="S12">
-        <v>0.01021138916174152</v>
+        <v>0.01557392722161484</v>
       </c>
       <c r="T12">
-        <v>0.01021138916174152</v>
+        <v>0.01557392722161484</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>3.583823</v>
       </c>
       <c r="I13">
-        <v>0.01579232424025529</v>
+        <v>0.02349487489124971</v>
       </c>
       <c r="J13">
-        <v>0.01579232424025529</v>
+        <v>0.02349487489124972</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.297808</v>
+        <v>11.180767</v>
       </c>
       <c r="N13">
-        <v>51.893424</v>
+        <v>33.54230099999999</v>
       </c>
       <c r="O13">
-        <v>0.172220975923324</v>
+        <v>0.08485010193531929</v>
       </c>
       <c r="P13">
-        <v>0.172220975923324</v>
+        <v>0.08485010193531929</v>
       </c>
       <c r="Q13">
-        <v>20.664094053328</v>
+        <v>13.35662997741366</v>
       </c>
       <c r="R13">
-        <v>185.976846479952</v>
+        <v>120.209669796723</v>
       </c>
       <c r="S13">
-        <v>0.002719769492754332</v>
+        <v>0.001993542529480112</v>
       </c>
       <c r="T13">
-        <v>0.002719769492754332</v>
+        <v>0.001993542529480112</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.11918533333333</v>
+        <v>7.506370333333334</v>
       </c>
       <c r="H14">
-        <v>45.357556</v>
+        <v>22.519111</v>
       </c>
       <c r="I14">
-        <v>0.1998707054164051</v>
+        <v>0.1476310899302686</v>
       </c>
       <c r="J14">
-        <v>0.199870705416405</v>
+        <v>0.1476310899302687</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.08106466666666667</v>
+        <v>0.9620323333333333</v>
       </c>
       <c r="N14">
-        <v>0.243194</v>
+        <v>2.886097</v>
       </c>
       <c r="O14">
-        <v>0.0008070985645251863</v>
+        <v>0.007300799806346596</v>
       </c>
       <c r="P14">
-        <v>0.0008070985645251864</v>
+        <v>0.007300799806346596</v>
       </c>
       <c r="Q14">
-        <v>1.225631719318222</v>
+        <v>7.221370966640777</v>
       </c>
       <c r="R14">
-        <v>11.030685473864</v>
+        <v>64.992338699767</v>
       </c>
       <c r="S14">
-        <v>0.0001613153594322169</v>
+        <v>0.001077825032773642</v>
       </c>
       <c r="T14">
-        <v>0.0001613153594322169</v>
+        <v>0.001077825032773643</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.11918533333333</v>
+        <v>7.506370333333334</v>
       </c>
       <c r="H15">
-        <v>45.357556</v>
+        <v>22.519111</v>
       </c>
       <c r="I15">
-        <v>0.1998707054164051</v>
+        <v>0.1476310899302686</v>
       </c>
       <c r="J15">
-        <v>0.199870705416405</v>
+        <v>0.1476310899302687</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.359105</v>
       </c>
       <c r="O15">
-        <v>0.01114800868273632</v>
+        <v>0.008497341958187089</v>
       </c>
       <c r="P15">
-        <v>0.01114800868273632</v>
+        <v>0.008497341958187089</v>
       </c>
       <c r="Q15">
-        <v>16.92897701637555</v>
+        <v>8.404895372850556</v>
       </c>
       <c r="R15">
-        <v>152.36079314738</v>
+        <v>75.64405835565501</v>
       </c>
       <c r="S15">
-        <v>0.002228160359406716</v>
+        <v>0.001254471854797363</v>
       </c>
       <c r="T15">
-        <v>0.002228160359406716</v>
+        <v>0.001254471854797364</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.11918533333333</v>
+        <v>7.506370333333334</v>
       </c>
       <c r="H16">
-        <v>45.357556</v>
+        <v>22.519111</v>
       </c>
       <c r="I16">
-        <v>0.1998707054164051</v>
+        <v>0.1476310899302686</v>
       </c>
       <c r="J16">
-        <v>0.199870705416405</v>
+        <v>0.1476310899302687</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.87603366666667</v>
+        <v>30.69779366666667</v>
       </c>
       <c r="N16">
-        <v>47.628101</v>
+        <v>92.09338099999999</v>
       </c>
       <c r="O16">
-        <v>0.158065461928175</v>
+        <v>0.2329635276189966</v>
       </c>
       <c r="P16">
-        <v>0.158065461928175</v>
+        <v>0.2329635276189966</v>
       </c>
       <c r="Q16">
-        <v>240.0326953645729</v>
+        <v>230.4290076782545</v>
       </c>
       <c r="R16">
-        <v>2160.294258281156</v>
+        <v>2073.861069104291</v>
       </c>
       <c r="S16">
-        <v>0.03159265537755425</v>
+        <v>0.03439265949639271</v>
       </c>
       <c r="T16">
-        <v>0.03159265537755425</v>
+        <v>0.03439265949639272</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.11918533333333</v>
+        <v>7.506370333333334</v>
       </c>
       <c r="H17">
-        <v>45.357556</v>
+        <v>22.519111</v>
       </c>
       <c r="I17">
-        <v>0.1998707054164051</v>
+        <v>0.1476310899302686</v>
       </c>
       <c r="J17">
-        <v>0.199870705416405</v>
+        <v>0.1476310899302687</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.120291</v>
+        <v>0.4642756666666667</v>
       </c>
       <c r="N17">
-        <v>3.360873</v>
+        <v>1.392827</v>
       </c>
       <c r="O17">
-        <v>0.01115387622166442</v>
+        <v>0.003523357354889427</v>
       </c>
       <c r="P17">
-        <v>0.01115387622166442</v>
+        <v>0.003523357354889427</v>
       </c>
       <c r="Q17">
-        <v>16.93788725626533</v>
+        <v>3.485025090755223</v>
       </c>
       <c r="R17">
-        <v>152.440985306388</v>
+        <v>31.365225816797</v>
       </c>
       <c r="S17">
-        <v>0.002229333108551334</v>
+        <v>0.0005201570865161544</v>
       </c>
       <c r="T17">
-        <v>0.002229333108551333</v>
+        <v>0.0005201570865161546</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.11918533333333</v>
+        <v>7.506370333333334</v>
       </c>
       <c r="H18">
-        <v>45.357556</v>
+        <v>22.519111</v>
       </c>
       <c r="I18">
-        <v>0.1998707054164051</v>
+        <v>0.1476310899302686</v>
       </c>
       <c r="J18">
-        <v>0.199870705416405</v>
+        <v>0.1476310899302687</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>64.94471299999999</v>
+        <v>87.34624366666667</v>
       </c>
       <c r="N18">
-        <v>194.834139</v>
+        <v>262.038731</v>
       </c>
       <c r="O18">
-        <v>0.6466045786795751</v>
+        <v>0.6628648713262609</v>
       </c>
       <c r="P18">
-        <v>0.6466045786795752</v>
+        <v>0.6628648713262609</v>
       </c>
       <c r="Q18">
-        <v>981.9111522671426</v>
+        <v>655.6532521875713</v>
       </c>
       <c r="R18">
-        <v>8837.200370404284</v>
+        <v>5900.879269688141</v>
       </c>
       <c r="S18">
-        <v>0.1292373132661641</v>
+        <v>0.09785946343038317</v>
       </c>
       <c r="T18">
-        <v>0.1292373132661641</v>
+        <v>0.09785946343038321</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.11918533333333</v>
+        <v>7.506370333333334</v>
       </c>
       <c r="H19">
-        <v>45.357556</v>
+        <v>22.519111</v>
       </c>
       <c r="I19">
-        <v>0.1998707054164051</v>
+        <v>0.1476310899302686</v>
       </c>
       <c r="J19">
-        <v>0.199870705416405</v>
+        <v>0.1476310899302687</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.297808</v>
+        <v>11.180767</v>
       </c>
       <c r="N19">
-        <v>51.893424</v>
+        <v>33.54230099999999</v>
       </c>
       <c r="O19">
-        <v>0.172220975923324</v>
+        <v>0.08485010193531929</v>
       </c>
       <c r="P19">
-        <v>0.172220975923324</v>
+        <v>0.08485010193531929</v>
       </c>
       <c r="Q19">
-        <v>261.528765012416</v>
+        <v>83.92697771271231</v>
       </c>
       <c r="R19">
-        <v>2353.758885111744</v>
+        <v>755.3427994144109</v>
       </c>
       <c r="S19">
-        <v>0.03442192794529647</v>
+        <v>0.01252651302940558</v>
       </c>
       <c r="T19">
-        <v>0.03442192794529647</v>
+        <v>0.01252651302940559</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.3915566666666667</v>
+        <v>0.209799</v>
       </c>
       <c r="H20">
-        <v>1.17467</v>
+        <v>0.6293970000000001</v>
       </c>
       <c r="I20">
-        <v>0.005176251593703341</v>
+        <v>0.004126209294356305</v>
       </c>
       <c r="J20">
-        <v>0.005176251593703341</v>
+        <v>0.004126209294356305</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.08106466666666667</v>
+        <v>0.9620323333333333</v>
       </c>
       <c r="N20">
-        <v>0.243194</v>
+        <v>2.886097</v>
       </c>
       <c r="O20">
-        <v>0.0008070985645251863</v>
+        <v>0.007300799806346596</v>
       </c>
       <c r="P20">
-        <v>0.0008070985645251864</v>
+        <v>0.007300799806346596</v>
       </c>
       <c r="Q20">
-        <v>0.03174141066444445</v>
+        <v>0.201833421501</v>
       </c>
       <c r="R20">
-        <v>0.2856726959800001</v>
+        <v>1.816500793509</v>
       </c>
       <c r="S20">
-        <v>4.177745230899174E-06</v>
+        <v>3.012462801718203E-05</v>
       </c>
       <c r="T20">
-        <v>4.177745230899174E-06</v>
+        <v>3.012462801718204E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.3915566666666667</v>
+        <v>0.209799</v>
       </c>
       <c r="H21">
-        <v>1.17467</v>
+        <v>0.6293970000000001</v>
       </c>
       <c r="I21">
-        <v>0.005176251593703341</v>
+        <v>0.004126209294356305</v>
       </c>
       <c r="J21">
-        <v>0.005176251593703341</v>
+        <v>0.004126209294356305</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.359105</v>
       </c>
       <c r="O21">
-        <v>0.01114800868273632</v>
+        <v>0.008497341958187089</v>
       </c>
       <c r="P21">
-        <v>0.01114800868273632</v>
+        <v>0.008497341958187089</v>
       </c>
       <c r="Q21">
-        <v>0.4384266522611112</v>
+        <v>0.234912289965</v>
       </c>
       <c r="R21">
-        <v>3.94583987035</v>
+        <v>2.114210609685</v>
       </c>
       <c r="S21">
-        <v>5.770489771063254E-05</v>
+        <v>3.506181136519537E-05</v>
       </c>
       <c r="T21">
-        <v>5.770489771063254E-05</v>
+        <v>3.506181136519538E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.3915566666666667</v>
+        <v>0.209799</v>
       </c>
       <c r="H22">
-        <v>1.17467</v>
+        <v>0.6293970000000001</v>
       </c>
       <c r="I22">
-        <v>0.005176251593703341</v>
+        <v>0.004126209294356305</v>
       </c>
       <c r="J22">
-        <v>0.005176251593703341</v>
+        <v>0.004126209294356305</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>15.87603366666667</v>
+        <v>30.69779366666667</v>
       </c>
       <c r="N22">
-        <v>47.628101</v>
+        <v>92.09338099999999</v>
       </c>
       <c r="O22">
-        <v>0.158065461928175</v>
+        <v>0.2329635276189966</v>
       </c>
       <c r="P22">
-        <v>0.158065461928175</v>
+        <v>0.2329635276189966</v>
       </c>
       <c r="Q22">
-        <v>6.216366822407778</v>
+        <v>6.440366413473001</v>
       </c>
       <c r="R22">
-        <v>55.94730140167</v>
+        <v>57.96329772125701</v>
       </c>
       <c r="S22">
-        <v>0.0008181865992151706</v>
+        <v>0.0009612562729075355</v>
       </c>
       <c r="T22">
-        <v>0.0008181865992151706</v>
+        <v>0.0009612562729075356</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.3915566666666667</v>
+        <v>0.209799</v>
       </c>
       <c r="H23">
-        <v>1.17467</v>
+        <v>0.6293970000000001</v>
       </c>
       <c r="I23">
-        <v>0.005176251593703341</v>
+        <v>0.004126209294356305</v>
       </c>
       <c r="J23">
-        <v>0.005176251593703341</v>
+        <v>0.004126209294356305</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.120291</v>
+        <v>0.4642756666666667</v>
       </c>
       <c r="N23">
-        <v>3.360873</v>
+        <v>1.392827</v>
       </c>
       <c r="O23">
-        <v>0.01115387622166442</v>
+        <v>0.003523357354889427</v>
       </c>
       <c r="P23">
-        <v>0.01115387622166442</v>
+        <v>0.003523357354889427</v>
       </c>
       <c r="Q23">
-        <v>0.4386574096566667</v>
+        <v>0.09740457059100002</v>
       </c>
       <c r="R23">
-        <v>3.94791668691</v>
+        <v>0.8766411353190001</v>
       </c>
       <c r="S23">
-        <v>5.773526956836024E-05</v>
+        <v>1.45381098650834E-05</v>
       </c>
       <c r="T23">
-        <v>5.773526956836023E-05</v>
+        <v>1.45381098650834E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.3915566666666667</v>
+        <v>0.209799</v>
       </c>
       <c r="H24">
-        <v>1.17467</v>
+        <v>0.6293970000000001</v>
       </c>
       <c r="I24">
-        <v>0.005176251593703341</v>
+        <v>0.004126209294356305</v>
       </c>
       <c r="J24">
-        <v>0.005176251593703341</v>
+        <v>0.004126209294356305</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>64.94471299999999</v>
+        <v>87.34624366666667</v>
       </c>
       <c r="N24">
-        <v>194.834139</v>
+        <v>262.038731</v>
       </c>
       <c r="O24">
-        <v>0.6466045786795751</v>
+        <v>0.6628648713262609</v>
       </c>
       <c r="P24">
-        <v>0.6466045786795752</v>
+        <v>0.6628648713262609</v>
       </c>
       <c r="Q24">
-        <v>25.42953533990334</v>
+        <v>18.325154575023</v>
       </c>
       <c r="R24">
-        <v>228.86581805913</v>
+        <v>164.926391175207</v>
       </c>
       <c r="S24">
-        <v>0.003346987980886028</v>
+        <v>0.002735119192968714</v>
       </c>
       <c r="T24">
-        <v>0.003346987980886028</v>
+        <v>0.002735119192968714</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.3915566666666667</v>
+        <v>0.209799</v>
       </c>
       <c r="H25">
-        <v>1.17467</v>
+        <v>0.6293970000000001</v>
       </c>
       <c r="I25">
-        <v>0.005176251593703341</v>
+        <v>0.004126209294356305</v>
       </c>
       <c r="J25">
-        <v>0.005176251593703341</v>
+        <v>0.004126209294356305</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.297808</v>
+        <v>11.180767</v>
       </c>
       <c r="N25">
-        <v>51.893424</v>
+        <v>33.54230099999999</v>
       </c>
       <c r="O25">
-        <v>0.172220975923324</v>
+        <v>0.08485010193531929</v>
       </c>
       <c r="P25">
-        <v>0.172220975923324</v>
+        <v>0.08485010193531929</v>
       </c>
       <c r="Q25">
-        <v>6.773072041120001</v>
+        <v>2.345713735833</v>
       </c>
       <c r="R25">
-        <v>60.95764837008</v>
+        <v>21.111423622497</v>
       </c>
       <c r="S25">
-        <v>0.0008914591010922505</v>
+        <v>0.0003501092792325943</v>
       </c>
       <c r="T25">
-        <v>0.0008914591010922504</v>
+        <v>0.0003501092792325944</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>34.41847866666667</v>
+        <v>31.40248233333334</v>
       </c>
       <c r="H26">
-        <v>103.255436</v>
+        <v>94.207447</v>
       </c>
       <c r="I26">
-        <v>0.455001077028896</v>
+        <v>0.6176064445953491</v>
       </c>
       <c r="J26">
-        <v>0.455001077028896</v>
+        <v>0.6176064445953492</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.08106466666666667</v>
+        <v>0.9620323333333333</v>
       </c>
       <c r="N26">
-        <v>0.243194</v>
+        <v>2.886097</v>
       </c>
       <c r="O26">
-        <v>0.0008070985645251863</v>
+        <v>0.007300799806346596</v>
       </c>
       <c r="P26">
-        <v>0.0008070985645251864</v>
+        <v>0.007300799806346596</v>
       </c>
       <c r="Q26">
-        <v>2.790122500287111</v>
+        <v>30.21020335159544</v>
       </c>
       <c r="R26">
-        <v>25.111102502584</v>
+        <v>271.891830164359</v>
       </c>
       <c r="S26">
-        <v>0.0003672307161274356</v>
+        <v>0.004509021011100134</v>
       </c>
       <c r="T26">
-        <v>0.0003672307161274357</v>
+        <v>0.004509021011100135</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>34.41847866666667</v>
+        <v>31.40248233333334</v>
       </c>
       <c r="H27">
-        <v>103.255436</v>
+        <v>94.207447</v>
       </c>
       <c r="I27">
-        <v>0.455001077028896</v>
+        <v>0.6176064445953491</v>
       </c>
       <c r="J27">
-        <v>0.455001077028896</v>
+        <v>0.6176064445953492</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>3.359105</v>
       </c>
       <c r="O27">
-        <v>0.01114800868273632</v>
+        <v>0.008497341958187089</v>
       </c>
       <c r="P27">
-        <v>0.01114800868273632</v>
+        <v>0.008497341958187089</v>
       </c>
       <c r="Q27">
-        <v>38.53842792719777</v>
+        <v>35.16141180610389</v>
       </c>
       <c r="R27">
-        <v>346.84585134478</v>
+        <v>316.452706254935</v>
       </c>
       <c r="S27">
-        <v>0.005072355957372507</v>
+        <v>0.005248013155306809</v>
       </c>
       <c r="T27">
-        <v>0.005072355957372507</v>
+        <v>0.00524801315530681</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>34.41847866666667</v>
+        <v>31.40248233333334</v>
       </c>
       <c r="H28">
-        <v>103.255436</v>
+        <v>94.207447</v>
       </c>
       <c r="I28">
-        <v>0.455001077028896</v>
+        <v>0.6176064445953491</v>
       </c>
       <c r="J28">
-        <v>0.455001077028896</v>
+        <v>0.6176064445953492</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>15.87603366666667</v>
+        <v>30.69779366666667</v>
       </c>
       <c r="N28">
-        <v>47.628101</v>
+        <v>92.09338099999999</v>
       </c>
       <c r="O28">
-        <v>0.158065461928175</v>
+        <v>0.2329635276189966</v>
       </c>
       <c r="P28">
-        <v>0.158065461928175</v>
+        <v>0.2329635276189966</v>
       </c>
       <c r="Q28">
-        <v>546.4289260674484</v>
+        <v>963.9869232898119</v>
       </c>
       <c r="R28">
-        <v>4917.860334607036</v>
+        <v>8675.882309608307</v>
       </c>
       <c r="S28">
-        <v>0.07191995541838957</v>
+        <v>0.1438797760131589</v>
       </c>
       <c r="T28">
-        <v>0.07191995541838958</v>
+        <v>0.1438797760131589</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>34.41847866666667</v>
+        <v>31.40248233333334</v>
       </c>
       <c r="H29">
-        <v>103.255436</v>
+        <v>94.207447</v>
       </c>
       <c r="I29">
-        <v>0.455001077028896</v>
+        <v>0.6176064445953491</v>
       </c>
       <c r="J29">
-        <v>0.455001077028896</v>
+        <v>0.6176064445953492</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.120291</v>
+        <v>0.4642756666666667</v>
       </c>
       <c r="N29">
-        <v>3.360873</v>
+        <v>1.392827</v>
       </c>
       <c r="O29">
-        <v>0.01115387622166442</v>
+        <v>0.003523357354889427</v>
       </c>
       <c r="P29">
-        <v>0.01115387622166442</v>
+        <v>0.003523357354889427</v>
       </c>
       <c r="Q29">
-        <v>38.55871188395867</v>
+        <v>14.57940842029656</v>
       </c>
       <c r="R29">
-        <v>347.028406955628</v>
+        <v>131.214675782669</v>
       </c>
       <c r="S29">
-        <v>0.005075025693904302</v>
+        <v>0.002176048208992133</v>
       </c>
       <c r="T29">
-        <v>0.005075025693904302</v>
+        <v>0.002176048208992133</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>34.41847866666667</v>
+        <v>31.40248233333334</v>
       </c>
       <c r="H30">
-        <v>103.255436</v>
+        <v>94.207447</v>
       </c>
       <c r="I30">
-        <v>0.455001077028896</v>
+        <v>0.6176064445953491</v>
       </c>
       <c r="J30">
-        <v>0.455001077028896</v>
+        <v>0.6176064445953492</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>64.94471299999999</v>
+        <v>87.34624366666667</v>
       </c>
       <c r="N30">
-        <v>194.834139</v>
+        <v>262.038731</v>
       </c>
       <c r="O30">
-        <v>0.6466045786795751</v>
+        <v>0.6628648713262609</v>
       </c>
       <c r="P30">
-        <v>0.6466045786795752</v>
+        <v>0.6628648713262609</v>
       </c>
       <c r="Q30">
-        <v>2235.298218903289</v>
+        <v>2742.888873625529</v>
       </c>
       <c r="R30">
-        <v>20117.6839701296</v>
+        <v>24685.99986262976</v>
       </c>
       <c r="S30">
-        <v>0.2942057797110222</v>
+        <v>0.4093896164269656</v>
       </c>
       <c r="T30">
-        <v>0.2942057797110222</v>
+        <v>0.4093896164269656</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>34.41847866666667</v>
+        <v>31.40248233333334</v>
       </c>
       <c r="H31">
-        <v>103.255436</v>
+        <v>94.207447</v>
       </c>
       <c r="I31">
-        <v>0.455001077028896</v>
+        <v>0.6176064445953491</v>
       </c>
       <c r="J31">
-        <v>0.455001077028896</v>
+        <v>0.6176064445953492</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>17.297808</v>
+        <v>11.180767</v>
       </c>
       <c r="N31">
-        <v>51.893424</v>
+        <v>33.54230099999999</v>
       </c>
       <c r="O31">
-        <v>0.172220975923324</v>
+        <v>0.08485010193531929</v>
       </c>
       <c r="P31">
-        <v>0.172220975923324</v>
+        <v>0.08485010193531929</v>
       </c>
       <c r="Q31">
-        <v>595.364235628096</v>
+        <v>351.1038381906163</v>
       </c>
       <c r="R31">
-        <v>5358.278120652863</v>
+        <v>3159.934543715547</v>
       </c>
       <c r="S31">
-        <v>0.07836072953207997</v>
+        <v>0.0524039697798255</v>
       </c>
       <c r="T31">
-        <v>0.07836072953207997</v>
+        <v>0.0524039697798255</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>16.47368433333333</v>
+        <v>5.52786</v>
       </c>
       <c r="H32">
-        <v>49.421053</v>
+        <v>16.58358</v>
       </c>
       <c r="I32">
-        <v>0.21777674100279</v>
+        <v>0.108718856190451</v>
       </c>
       <c r="J32">
-        <v>0.2177767410027899</v>
+        <v>0.1087188561904511</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.08106466666666667</v>
+        <v>0.9620323333333333</v>
       </c>
       <c r="N32">
-        <v>0.243194</v>
+        <v>2.886097</v>
       </c>
       <c r="O32">
-        <v>0.0008070985645251863</v>
+        <v>0.007300799806346596</v>
       </c>
       <c r="P32">
-        <v>0.0008070985645251864</v>
+        <v>0.007300799806346596</v>
       </c>
       <c r="Q32">
-        <v>1.335433729253556</v>
+        <v>5.31798005414</v>
       </c>
       <c r="R32">
-        <v>12.018903563282</v>
+        <v>47.86182048725999</v>
       </c>
       <c r="S32">
-        <v>0.0001757672950503251</v>
+        <v>0.0007937346042214683</v>
       </c>
       <c r="T32">
-        <v>0.0001757672950503251</v>
+        <v>0.0007937346042214686</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>16.47368433333333</v>
+        <v>5.52786</v>
       </c>
       <c r="H33">
-        <v>49.421053</v>
+        <v>16.58358</v>
       </c>
       <c r="I33">
-        <v>0.21777674100279</v>
+        <v>0.108718856190451</v>
       </c>
       <c r="J33">
-        <v>0.2177767410027899</v>
+        <v>0.1087188561904511</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>3.359105</v>
       </c>
       <c r="O33">
-        <v>0.01114800868273632</v>
+        <v>0.008497341958187089</v>
       </c>
       <c r="P33">
-        <v>0.01114800868273632</v>
+        <v>0.008497341958187089</v>
       </c>
       <c r="Q33">
-        <v>18.44561180417389</v>
+        <v>6.189554055099999</v>
       </c>
       <c r="R33">
-        <v>166.010506237565</v>
+        <v>55.70598649589999</v>
       </c>
       <c r="S33">
-        <v>0.00242777699959712</v>
+        <v>0.0009238212983532277</v>
       </c>
       <c r="T33">
-        <v>0.00242777699959712</v>
+        <v>0.0009238212983532279</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>16.47368433333333</v>
+        <v>5.52786</v>
       </c>
       <c r="H34">
-        <v>49.421053</v>
+        <v>16.58358</v>
       </c>
       <c r="I34">
-        <v>0.21777674100279</v>
+        <v>0.108718856190451</v>
       </c>
       <c r="J34">
-        <v>0.2177767410027899</v>
+        <v>0.1087188561904511</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>15.87603366666667</v>
+        <v>30.69779366666667</v>
       </c>
       <c r="N34">
-        <v>47.628101</v>
+        <v>92.09338099999999</v>
       </c>
       <c r="O34">
-        <v>0.158065461928175</v>
+        <v>0.2329635276189966</v>
       </c>
       <c r="P34">
-        <v>0.158065461928175</v>
+        <v>0.2329635276189966</v>
       </c>
       <c r="Q34">
-        <v>261.5367670900392</v>
+        <v>169.69310569822</v>
       </c>
       <c r="R34">
-        <v>2353.830903810353</v>
+        <v>1527.23795128398</v>
       </c>
       <c r="S34">
-        <v>0.03442298116381852</v>
+        <v>0.02532752825682986</v>
       </c>
       <c r="T34">
-        <v>0.03442298116381852</v>
+        <v>0.02532752825682986</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>16.47368433333333</v>
+        <v>5.52786</v>
       </c>
       <c r="H35">
-        <v>49.421053</v>
+        <v>16.58358</v>
       </c>
       <c r="I35">
-        <v>0.21777674100279</v>
+        <v>0.108718856190451</v>
       </c>
       <c r="J35">
-        <v>0.2177767410027899</v>
+        <v>0.1087188561904511</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.120291</v>
+        <v>0.4642756666666667</v>
       </c>
       <c r="N35">
-        <v>3.360873</v>
+        <v>1.392827</v>
       </c>
       <c r="O35">
-        <v>0.01115387622166442</v>
+        <v>0.003523357354889427</v>
       </c>
       <c r="P35">
-        <v>0.01115387622166442</v>
+        <v>0.003523357354889427</v>
       </c>
       <c r="Q35">
-        <v>18.45532029547433</v>
+        <v>2.56645088674</v>
       </c>
       <c r="R35">
-        <v>166.097882659269</v>
+        <v>23.09805798066</v>
       </c>
       <c r="S35">
-        <v>0.002429054813102589</v>
+        <v>0.0003830553815737916</v>
       </c>
       <c r="T35">
-        <v>0.002429054813102589</v>
+        <v>0.0003830553815737917</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>16.47368433333333</v>
+        <v>5.52786</v>
       </c>
       <c r="H36">
-        <v>49.421053</v>
+        <v>16.58358</v>
       </c>
       <c r="I36">
-        <v>0.21777674100279</v>
+        <v>0.108718856190451</v>
       </c>
       <c r="J36">
-        <v>0.2177767410027899</v>
+        <v>0.1087188561904511</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>64.94471299999999</v>
+        <v>87.34624366666667</v>
       </c>
       <c r="N36">
-        <v>194.834139</v>
+        <v>262.038731</v>
       </c>
       <c r="O36">
-        <v>0.6466045786795751</v>
+        <v>0.6628648713262609</v>
       </c>
       <c r="P36">
-        <v>0.6466045786795752</v>
+        <v>0.6628648713262609</v>
       </c>
       <c r="Q36">
-        <v>1069.87870108093</v>
+        <v>482.8378065152199</v>
       </c>
       <c r="R36">
-        <v>9628.908309728367</v>
+        <v>4345.540258636979</v>
       </c>
       <c r="S36">
-        <v>0.14081543786232</v>
+        <v>0.07206591061942159</v>
       </c>
       <c r="T36">
-        <v>0.14081543786232</v>
+        <v>0.07206591061942161</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>16.47368433333333</v>
+        <v>5.52786</v>
       </c>
       <c r="H37">
-        <v>49.421053</v>
+        <v>16.58358</v>
       </c>
       <c r="I37">
-        <v>0.21777674100279</v>
+        <v>0.108718856190451</v>
       </c>
       <c r="J37">
-        <v>0.2177767410027899</v>
+        <v>0.1087188561904511</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>17.297808</v>
+        <v>11.180767</v>
       </c>
       <c r="N37">
-        <v>51.893424</v>
+        <v>33.54230099999999</v>
       </c>
       <c r="O37">
-        <v>0.172220975923324</v>
+        <v>0.08485010193531929</v>
       </c>
       <c r="P37">
-        <v>0.172220975923324</v>
+        <v>0.08485010193531929</v>
       </c>
       <c r="Q37">
-        <v>284.958628650608</v>
+        <v>61.80571466861998</v>
       </c>
       <c r="R37">
-        <v>2564.627657855472</v>
+        <v>556.2514320175799</v>
       </c>
       <c r="S37">
-        <v>0.03750572286890145</v>
+        <v>0.009224806030051089</v>
       </c>
       <c r="T37">
-        <v>0.03750572286890144</v>
+        <v>0.00922480603005109</v>
       </c>
     </row>
   </sheetData>
